--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -451,379 +451,509 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>481010</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>工银瑞信中小盘混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>93.08</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000021</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏优势增长混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000031</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏复兴混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001924</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>005360</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>汇安资产轮动灵活配置混合</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>87.45</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>3.54</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004224</t>
+          <t>001475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合A</t>
+          <t>易方达国防军工混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>111.66</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9403</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011148</t>
+          <t>000031</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方军工改革灵活配置混合C</t>
+          <t>华夏复兴混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>37.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9212</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005358</t>
+          <t>000021</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
+          <t>华夏优势增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>69.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>90.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6334</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005359</t>
+          <t>004224</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
+          <t>南方军工改革灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>92.02</t>
+          <t>27.46</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.49</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005360</t>
+          <t>005358</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇安资产轮动灵活配置混合</t>
+          <t>东方阿尔法精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>9.02</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>000021</t>
+          <t>001924</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华夏优势增长混合</t>
+          <t>华夏国企改革灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.27</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000031</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏复兴混合</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005628</t>
+          <t>005359</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票A</t>
+          <t>东方阿尔法精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005629</t>
+          <t>011148</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>汇安趋势动力股票C</t>
+          <t>南方军工改革灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006270</t>
+          <t>002604</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇安核心成长混合A</t>
+          <t>华夏新起点灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006271</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇安核心成长混合C</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.90</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>85.44</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>005360</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>汇安资产轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.73</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>94.70</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1.73</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>006270</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>汇安核心成长混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>006271</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>汇安核心成长混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001475</t>
+          <t>005628</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达国防军工混合</t>
+          <t>汇安趋势动力股票A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001924</t>
+          <t>166107</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏国企改革灵活配置混合</t>
+          <t>信达澳银量化多因子混合（LOF）A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.76</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>166107</t>
+          <t>005629</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）A</t>
+          <t>汇安趋势动力股票C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>166108</t>
+          <t>008213</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>信达澳银量化多因子混合（LOF）C</t>
+          <t>华夏新起点灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>94.25</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
+          <t>30.98</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>002604</t>
+          <t>166108</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合A</t>
+          <t>信达澳银量化多因子混合（LOF）C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>30.98</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1462,26 +1812,30 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>008213</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏新起点灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>30.98</t>
-        </is>
-      </c>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1820,7 +1821,6 @@
           <t>诺安中证500指数增强C</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>92.82</t>
@@ -1836,6 +1836,1088 @@
       </c>
       <c r="H23" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0873</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9809</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9009</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2268</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>33.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8101</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1947</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1807</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达积极成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1738</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0373</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7934</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6894</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6710</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>96.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1355</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005628</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005629</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安趋势动力股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2923,4 +2924,1124 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3857</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.6227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9850</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3098</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004224</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0962</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6816</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.94</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9873</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7369</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5880</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方军工改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3679</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2940</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.28</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1217</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160518</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时睿远事件驱动灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009317</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信核心竞争力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4044,4 +4045,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>22</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4053,7 +4054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4064,17 +4065,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4084,14 +4105,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.31</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.7089</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -4100,14 +4143,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>27.12</v>
+          <t>900010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>133.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6447</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4116,14 +4181,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>22</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.08</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3665</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4132,13 +4219,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>31.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.1136</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>900090</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>102.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8148</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>74.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1046</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.3615</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004139</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮军民融合灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9977</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9438</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7169</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5807</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3499</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>900100</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信卓越成长两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>96.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1734</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>590006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中邮中小盘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>28</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>27</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>15.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5022,7 +5023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5033,17 +5034,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5053,14 +5074,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.51</v>
+          <t>501207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7154</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5069,14 +5112,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>28</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28.31</v>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5085,14 +5150,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>27</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27.12</v>
+          <t>007349</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5101,14 +5188,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>22</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.08</v>
+          <t>010518</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6505</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5117,13 +5226,737 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010106</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5792</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3392</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010519</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏先锋科技一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1582</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002746</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富多策略定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>64.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1429</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010107</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏核心科技6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007350</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="n">
+        <v>28.31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>15.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5839,7 +5840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5850,17 +5851,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5870,14 +5891,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.7</v>
+          <t>011184</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4725</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5886,14 +5929,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>29.51</v>
+          <t>012568</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2941</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -5902,14 +5967,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>28</v>
-      </c>
-      <c r="D4" t="n">
-        <v>28.31</v>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5918,14 +6005,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>27</v>
-      </c>
-      <c r="D5" t="n">
-        <v>27.12</v>
+          <t>012569</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘高端制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -5934,14 +6043,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>22</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.08</v>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -5950,13 +6081,449 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011185</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方阿尔法招阳混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>29.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>28</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.31</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>27</v>
+      </c>
+      <c r="D6" t="n">
+        <v>27.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>15.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>1.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>10.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>29.51</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>28.31</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
-        <v>27.12</v>
+        <v>28.31</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
-        <v>12.08</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>22</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>15.1</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001541</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富民营新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1149,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1965,7 +2228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2933,7 +3196,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4053,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5135,7 +5398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6020,7 +6283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
+++ b/数据整理/stocks/A股/深证主板/002985-北摩高科.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>1.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>29.51</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>28.31</v>
+        <v>29.51</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>27.12</v>
+        <v>28.31</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>12.08</v>
+        <v>27.12</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,542 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>15.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.3457</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000031</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏复兴混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.5174</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏优势增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9757</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2569</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519908</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏兴华混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>960004</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏兴华混合H</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001924</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005359</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方阿尔法精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1389</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005360</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安资产轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1146,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004926</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中航军民融合精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>58.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,7 +1675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1412,7 +2225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2228,7 +3041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3196,7 +4009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4316,7 +5129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5398,7 +6211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6281,516 +7094,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>8.72</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.3457</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000031</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏复兴混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>49.85</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.5174</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000021</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏优势增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>80.97</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.52</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.9757</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005358</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>14.48</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.2569</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>481010</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中小盘混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25.04</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7312</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519908</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏兴华混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2725</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>960004</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华夏兴华混合H</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.84</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2725</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007518</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2706</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001924</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华夏国企改革灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2232</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005359</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>东方阿尔法精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1389</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>007519</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>东方阿尔法优选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.82</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>6.15</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0855</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005360</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇安资产轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.45</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>